--- a/plan/design/功能设计/数值.xlsx
+++ b/plan/design/功能设计/数值.xlsx
@@ -4,23 +4,52 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>基础大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>640*960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次跳越(px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -488,4 +517,351 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>